--- a/data/case2.xlsx
+++ b/data/case2.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="690"/>
   </bookViews>
   <sheets>
-    <sheet name="app通用" sheetId="5" r:id="rId1"/>
-    <sheet name="登录" sheetId="4" r:id="rId2"/>
-    <sheet name="首页" sheetId="1" r:id="rId3"/>
-    <sheet name="个人空间页" sheetId="9" r:id="rId4"/>
-    <sheet name="邀请好友注册" sheetId="8" r:id="rId5"/>
-    <sheet name="直播" sheetId="6" r:id="rId6"/>
-    <sheet name="阅读" sheetId="3" r:id="rId7"/>
+    <sheet name="app" sheetId="12" r:id="rId1"/>
+    <sheet name="app通用" sheetId="5" r:id="rId2"/>
+    <sheet name="登录" sheetId="4" r:id="rId3"/>
+    <sheet name="首页" sheetId="1" r:id="rId4"/>
+    <sheet name="个人空间页" sheetId="9" r:id="rId5"/>
+    <sheet name="邀请好友注册" sheetId="8" r:id="rId6"/>
+    <sheet name="直播" sheetId="6" r:id="rId7"/>
     <sheet name="创作" sheetId="7" r:id="rId8"/>
+    <sheet name="漫画" sheetId="3" r:id="rId9"/>
+    <sheet name="漫剧" sheetId="10" r:id="rId10"/>
+    <sheet name="爬虫内容" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
   <si>
     <t>id</t>
   </si>
@@ -62,18 +65,33 @@
     <t>测试结果</t>
   </si>
   <si>
+    <t>get_module_unread</t>
+  </si>
+  <si>
+    <t>app通用</t>
+  </si>
+  <si>
+    <t>/api/app/get_module_unread</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
+  </si>
+  <si>
+    <t>"flow_window_activity"</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>install</t>
   </si>
   <si>
-    <t>app通用</t>
-  </si>
-  <si>
     <t>/api/app/install</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '', 'Authorization': Authorization}</t>
   </si>
   <si>
@@ -83,25 +101,7 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>"guest_id"</t>
-  </si>
-  <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>get_module_unread</t>
-  </si>
-  <si>
-    <t>/api/app/get_module_unread</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
-  </si>
-  <si>
-    <t>"flow_window_activity"</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
   <si>
     <t>emoji_package</t>
@@ -684,7 +684,7 @@
   </si>
   <si>
     <t>{
- 'zone_id': '3',
+ 'zone_id': '1',
  'page': '1',
  'pagesize': '20',
  'app_key': 'lemondream_3',
@@ -824,21 +824,288 @@
     </r>
   </si>
   <si>
+    <t>我的邀请详情</t>
+  </si>
+  <si>
+    <t>邀请好友注册</t>
+  </si>
+  <si>
+    <t>/api/share/my_invite_reg_info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Content-Type'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'application/json'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'channel'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'default'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'X-Token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'4b5e4c5a02'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'Authorization'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Authorization,'accessToken':token['access_token']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"user_id":1042}</t>
+  </si>
+  <si>
+    <t>战绩记录列表</t>
+  </si>
+  <si>
+    <t>/api/share/get_invite_reg_record_list</t>
+  </si>
+  <si>
+    <t>填写邀请码</t>
+  </si>
+  <si>
+    <t>/api/share/submit_invite_reg_code</t>
+  </si>
+  <si>
+    <t>{'invite_code':'EEOI6J'}</t>
+  </si>
+  <si>
+    <t>获取邀请码用户的信息</t>
+  </si>
+  <si>
+    <t>/api/share/get_invite_reg_uinfo</t>
+  </si>
+  <si>
+    <t>{'share_token':'MTA0Mg=='}</t>
+  </si>
+  <si>
+    <t>创建视频直播间</t>
+  </si>
+  <si>
+    <t>直播</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/create_broadcasting</t>
+  </si>
+  <si>
     <t>{
-  "code": 0,
-  "msg": "请求成功"
+ 'versionCode': 'android_1.0.0',
+ 'Token': '4b5e4c5a02',
+ 'Authorization': Authorization,
+ 'Content-Type': 'application/json',
+ 'User-Agent': 'okhttp/3.12.0',
+ 'Connection': 'keep-alive'
 }</t>
   </si>
   <si>
-    <t>我的邀请详情</t>
-  </si>
-  <si>
-    <t>邀请好友注册</t>
-  </si>
-  <si>
-    <t>/api/share/my_invite_reg_info</t>
-  </si>
-  <si>
+    <t>{
+ 'bgm_img': 'http://psb1lisd3.bkt.clouddn.com/live_broadcast/bgm/100.png',
+ 'city': '',
+ 'studio_cover': 'user/1042/image/live_cover_1572660596032.jpg',
+ 'studio_label': '',
+ 'province': '广东省',
+ 'studio_title': 'tttttest',
+ 'studio_type': 1,
+ 'access_token': token['access_token']
+}</t>
+  </si>
+  <si>
+    <t>live_id</t>
+  </si>
+  <si>
+    <t>{"live_id"}</t>
+  </si>
+  <si>
+    <t>创建直播间组</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/create_group</t>
+  </si>
+  <si>
+    <t>{"live_id":live_id['live_id'],"access_token":token['access_token']}</t>
+  </si>
+  <si>
+    <t>live_id，access_token</t>
+  </si>
+  <si>
+    <t>{"group_id"}</t>
+  </si>
+  <si>
+    <t>获取直播间信息</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/get_studio_info</t>
+  </si>
+  <si>
+    <t>开启直播间</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/start_broadcasting</t>
+  </si>
+  <si>
+    <t>关闭直播间</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/stop_broadcasting</t>
+  </si>
+  <si>
+    <t>关获取直播间关闭信息</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/get_studio_close_info</t>
+  </si>
+  <si>
+    <t>{"is_online":0}</t>
+  </si>
+  <si>
+    <t>漫画详情页</t>
+  </si>
+  <si>
+    <t>漫画</t>
+  </si>
+  <si>
+    <t>/api/comic/get_comic_single_info</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'comic_id'</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -846,11 +1113,575 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>:'48283683'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>漫画评论</t>
+  </si>
+  <si>
+    <t>/api/comic/get_comic_single_new_comment_list</t>
+  </si>
+  <si>
+    <r>
       <t>{</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'comic_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:'48283683'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>],'page':1,'pagesize':20}</t>
+    </r>
+  </si>
+  <si>
+    <t>快速评论词</t>
+  </si>
+  <si>
+    <t>/api/comment/get_comment_default_word_list</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>],'page':1,'pagesize':20}</t>
+    </r>
+  </si>
+  <si>
+    <t>相关推荐</t>
+  </si>
+  <si>
+    <t>/api/recommend/get_relate_rec_content_list</t>
+  </si>
+  <si>
+    <r>
+      <t>{'type':'4','obj_id':'48283683','app_key':'lemondream_3',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>],'page':1,'pagesize':20}</t>
+    </r>
+  </si>
+  <si>
+    <t>漫剧详情页</t>
+  </si>
+  <si>
+    <t>漫剧</t>
+  </si>
+  <si>
+    <t>/api/adventure/get_game_single_info</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'single_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:'52_102757'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>漫剧评论</t>
+  </si>
+  <si>
+    <t>/api/adventure/get_game_single_new_comment_list</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'single_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:'52_102757'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>],'page':1,'pagesize':20}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{'type':'2','obj_id':'52_102757','app_key':'lemondream_3',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>],'page':1,'pagesize':20}</t>
+    </r>
+  </si>
+  <si>
+    <t>爬虫图片</t>
+  </si>
+  <si>
+    <t>爬虫内容</t>
+  </si>
+  <si>
+    <t>/api/External/get_external_content_info</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'content_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:'190652561'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>]}</t>
+    </r>
+  </si>
+  <si>
+    <t>/api/External/get_external_content_new_comment_list</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'content_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:'190652561'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:token[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'access_token'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>],'page':1,'pagesize':20}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF9876AA"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -945,7 +1776,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>'4b5e4c5a02'</t>
+      <t>'4b5e4c5a03'</t>
     </r>
     <r>
       <rPr>
@@ -972,7 +1803,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>: Authorization,'accessToken':token['access_token']</t>
+      <t>: Authorization</t>
     </r>
     <r>
       <rPr>
@@ -985,695 +1816,7 @@
     </r>
   </si>
   <si>
-    <t>{"user_id":1042}</t>
-  </si>
-  <si>
-    <t>战绩记录列表</t>
-  </si>
-  <si>
-    <t>/api/share/get_invite_reg_record_list</t>
-  </si>
-  <si>
-    <t>填写邀请码</t>
-  </si>
-  <si>
-    <t>/api/share/submit_invite_reg_code</t>
-  </si>
-  <si>
-    <t>{'invite_code':'EEOI6J'}</t>
-  </si>
-  <si>
-    <t>获取邀请码用户的信息</t>
-  </si>
-  <si>
-    <t>/api/share/get_invite_reg_uinfo</t>
-  </si>
-  <si>
-    <t>{'share_token':'MTA0Mg=='}</t>
-  </si>
-  <si>
-    <t>创建视频直播间</t>
-  </si>
-  <si>
-    <t>直播</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/create_broadcasting</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.0','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{'studio_type':1,'studio_cover':'','studio_title':'语音直播间','studio_label':'搞笑的','province':'广东','city':'广州'}</t>
-  </si>
-  <si>
-    <t>live_id</t>
-  </si>
-  <si>
-    <t>{'live_id','room_id','rtmp_push_url','rtmp_play_url','hls_play_url','flv_play_url'}</t>
-  </si>
-  <si>
-    <t>{
-    "code": 0,
-    "msg": "请求成功",
-    "data": {
-        "live_id": "19096", //直播场次ID
-        "room_id": "1", //房间ID
-        "rtmp_push_url": "rtmp://3891.livepush.myqcloud.com/live/3891_user_054da0bd_8a10?bizid=3891&amp;txSecret=5b98bc9065b402d8a73be8962b9004e4&amp;txTime=5D8ADE40", //推流地址
-        "rtmp_play_url": "rtmp://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10", //播放地址（RTMP）
-        "hls_play_url": "http://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10.m3u8", //播放地址（FLV）
-        "flv_play_url": "http://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10.flv" //播放地址（HLS）
-    }
-}</t>
-  </si>
-  <si>
-    <t>创建语音直播间</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.1','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{'studio_type':2,'studio_cover':'','studio_title':'语音直播间','studio_label':'搞笑的','province':'广东','city':'广州','bgm_img':''}</t>
-  </si>
-  <si>
-    <t>创建直播间-参数不对</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.2','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>创建直播间-参数为空</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.3','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>直播礼物列表</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/get_gift_list</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.4','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{
-    "list":[
-            {
-                "gift_id":1,//礼物ID
-                "title_image":"http://demo.lemondream.cn/aaa.jpg", //礼物封面
-                "icon_url":"http://demo.lemondream.cn/bbb.jpg", //礼物icon地址
-                "title":"礼物名称",
-                "price_type":1, //货币类型：1为铜币，2为银币，3为金币
-                "price":"10",//货币数量
-                "is_effect":1,//是否是特效礼物
-                "banner_type":1,//横幅类型@1:为大横幅@2:小横幅
-                "effect_url":"http://demo.lemondream.cn/aaa.jpg", //单送特效礼物文件，非特效礼物该字段值为空'''
-                "multi_give_json":"1314,1688" //连送数量，备注多个连送数量用英文逗号分隔
-            }
-        ]
-}</t>
-  </si>
-  <si>
-    <t>直播送礼-单送</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/give_gift</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.5','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{'gift_id',1,'live_id':'single_num':'1'}</t>
-  </si>
-  <si>
-    <t>{
-  "code": 0,
-  "msg": "请求成功",
-  "data": []
-}</t>
-  </si>
-  <si>
-    <t>直播送礼-连送</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.6','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>直播送礼-银币余额不足</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.7','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>银币余额不足情况返回的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> code</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 88000</t>
-    </r>
-  </si>
-  <si>
-    <t>直播送礼-铜币余额不足</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.8','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>铜币余额不足情况返回的 code为 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFB5CEA8"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>88003</t>
-    </r>
-  </si>
-  <si>
-    <t>获取直播推荐标签</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/get_rec_tag_list</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.9','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{'page':','pagesize':20}</t>
-  </si>
-  <si>
-    <t>{
-    "code": 0,
-    "msg": "请求成功",
-    "data": {
-        "list": [
-            {
-                "tag_id": 1, //标签ID
-                "title": "推荐用户标签01" //标签名称
-            }
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>观众离开直播间</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/visitor_leave_broadcast</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.10','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{'live_id':直播间id}</t>
-  </si>
-  <si>
-    <t>获取语音直播背景图列表</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/get_background_img_list</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.11','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{
-    "code": 0,
-    "msg": "请求成功",
-    "data": {
-        "list":[
-            {
-                "title_image":"http://demo.lemondream.cn/aaa.jpg"//语音直播背景图
-            }
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>直播背景音乐-列表</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/get_background_music_list</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.12','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{
-    "code": 0,
-    "msg": "请求成功",
-    "data": {
-        "list": [
-            {
-                "music_id": 3, //音乐ID
-                "title": "234", //音乐标题
-                "music_url": "http://psb1lisd3.bkt.clouddn.com/music/596541dd0a294e4527b746c283bf6c3f.mp3" //背景音乐地址
-            },
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>直播-获取推荐直播间ID列表</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/get_rec_live_broadcast_id_list</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.13','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{
-    "code": 0,
-    "msg": "请求成功",
-    "data": {
-        "list": [ //推荐直播间ID列表
-            "20191014",
-            "20191013"
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>直播间热度上报更新</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/update_live_broadcast_heat_num</t>
-  </si>
-  <si>
-    <t>{'versionCode':versionCode,'channel':'default','X-Token':'4b5e4c5a02','Authorization':Authorization,'Content-Type':'application/json','Accept-Encoding':' gzip','User-Agent':'okhttp/3.12.14','Connection':'keep-alive'}</t>
-  </si>
-  <si>
-    <t>{'live_id':直播间id,'heat_num':当前直播间热度}</t>
-  </si>
-  <si>
-    <t>{
-  "code": 0,
-  "msg": "请求成功",
-  "data": {
-    "live_id": 2019101
-  }
-}</t>
-  </si>
-  <si>
-    <t>修改直播间信息</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/edit_studio_info</t>
-  </si>
-  <si>
-    <t>Content-Type'：'application/x-www-form-urlencoded'</t>
-  </si>
-  <si>
-    <t>{'live_id':直播间id,'studio_title':'直播标题','studio_label':'直播标签','studio_cover':'直播封面'}</t>
-  </si>
-  <si>
-    <t>{
-  "code": 0,
-  "msg": "请求成功",
-  "data": {
-    "live_id": 19092
-  }
-}</t>
-  </si>
-  <si>
-    <t>开始直播</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/start_broadcasting</t>
-  </si>
-  <si>
-    <t>停止直播</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/stop_broadcasting</t>
-  </si>
-  <si>
-    <t>分享直播间</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/share_studio_info</t>
-  </si>
-  <si>
-    <t>{'live_id':直播间id,'channel':'分享渠道'}</t>
-  </si>
-  <si>
-    <t>直播间详情</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/get_studio_info</t>
-  </si>
-  <si>
-    <t>{
-    "code": 0,
-    "msg": "请求成功",
-    "data": {
-        "is_online": 0,//直播间状态：0为未开播，1为正常开播，2为已结束
-        "anchor_info":{
-            "user_id":1003, //主播用户ID
-            "nick_name":"昵称", //主播用户昵称
-            "avatar":"用户头像", //主播用户头像
-        },
-        "studio_info": {
-            "studio_title": "直播标222题", //直播标题
-            "studio_cover": "aaa.jpg",  //直播封面
-            "studio_bgm_img":"http://demo.lemondream.cn/bbb.jpg", //语音直播背景图
-            "studio_label": "标签01,标签02", //直播标签,多个标签用户英文逗号分隔
-            "studio_type": 1, //直播类型：1为视频直播，2为语音直播,
-            "heat_num": 0, //直播热度
-            "studio_time": 1688, //开播时长 开播到关播的总时长 单位为秒
-            "rtmp_push_url": "rtmp://3891.livepush.myqcloud.com/live/3891_user_054da0bd_8a10?bizid=3891&amp;txSecret=5b98bc9065b402d8a", //推流地址
-            "rtmp_play_url": "rtmp://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10", //播放地址（RTMP）
-            "hls_play_url": "http://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10.m3u8", //播放地址（HLS）
-            "flv_play_url": "http://3891.liveplay.myqcloud.com/live/3891_user_054da0bd_8a10.flv", //播放地址（FLV）
-            "group_id":"live_2019101",
-            "share_url":"http://192.168.0.241:8060/#/lemonLive/MjAxOTEwMQ==?mode=STAGING", //分享地址
-            "live_id":"2019101" //直播间ID
-        },
-        "hot_num_formula": { //直播间热度计算公式
-            "A": "5", //A，代表当前直播间在线人数；备选因子：直播间累计进场人数
-            "B": "10", //B，代表人均发言数；
-            "C": "7", //C，代表发言率；
-            "D": "3", //D，代表直播间铜币礼物打赏的银币总额；
-            "E": "1", //E，代表直播间银币礼物打赏转换的金币总额；
-            "F": "6" //F，代表累计开播时长。
-        },
-        "official_notice": [ //官方公告
-            {
-                "desc": "欢迎来到直播间！柠檬精倡导绿色健康直播，不提倡未成年人进行充值。直播内容和评论严禁包含政治、低俗色情、吸烟酗酒等内容。若有违反，将视情节严重程度给予禁播、永久禁封或停封账号。"
-            }
-        ]
-    }
-}</t>
-  </si>
-  <si>
-    <t>当场直播汇总</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/get_studio_close_info</t>
-  </si>
-  <si>
-    <t>{
-    "code": 0,
-    "msg": "请求成功",
-    "data": {
-        "anchor_info": {
-        "user_id":1003, //主播用户ID
-        "nick_name":"昵称", //主播用户昵称
-        "avatar":"aaa.jpg" //主播用户头像
-        },
-        "studio_info": {
-            "live_num": 1, //第几次直播
-            "studio_time": 1688, //开播时长 开播到关播的总时长 单位为秒
-            "follow_total": 0, //新增粉丝数
-            "gold_amount": "0.00" //金币收益
-        },
-        "is_online": 0
-    }
-}</t>
-  </si>
-  <si>
-    <t>阅读漫画单篇_id存在</t>
-  </si>
-  <si>
-    <t>阅读</t>
-  </si>
-  <si>
-    <t>/api/comic/get_comic_single_info</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'comic_id'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:'48283683'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'access_token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:token[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'access_token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]}</t>
-    </r>
-  </si>
-  <si>
-    <t>"comic_index_id":"48283683"</t>
-  </si>
-  <si>
-    <t>阅读漫画单篇_id为空</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'comic_id'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:''</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'access_token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:token[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'access_token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]}</t>
-    </r>
-  </si>
-  <si>
-    <t>"msg":"内容已失效"</t>
-  </si>
-  <si>
-    <t>阅读漫画单篇_id不存在</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'comic_id'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:'111148283683'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'access_token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:token[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'access_token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]}</t>
-    </r>
+    <t>{'type':'9','obj_id':'190652561','app_key':'lemondream_3','access_token':token['access_token'],'page':1,'pagesize':20}</t>
   </si>
 </sst>
 </file>
@@ -1681,12 +1824,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,31 +1845,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF808080"/>
+      <color rgb="FFA9B7C6"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFA9B7C6"/>
+      <color rgb="FF808080"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCE9178"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFCE9178"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -1745,48 +1876,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1806,48 +1898,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1867,6 +1919,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1876,7 +1968,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1891,18 +2022,6 @@
       <sz val="12"/>
       <color rgb="FFCC7832"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCE9178"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFB5CEA8"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1921,36 +2040,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1964,6 +2053,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,24 +2142,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2029,55 +2154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,6 +2182,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2112,6 +2231,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2132,45 +2323,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2179,39 +2331,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2220,10 +2339,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2232,175 +2351,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2750,27 +2860,119 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="216" spans="1:12">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="1" customWidth="1"/>
-    <col min="8" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="43.125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="11.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="14.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2807,95 +3009,255 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="108" spans="1:12">
-      <c r="A2" s="1">
+    <row r="2" ht="114" spans="1:12">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="108" spans="1:12">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" ht="114" spans="1:12">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
+      <c r="B3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" ht="108" spans="1:12">
-      <c r="A4" s="1">
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="142.5" spans="1:12">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
+      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="21.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="99.75" spans="2:12">
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="99.75" spans="2:12">
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="128.25" spans="2:12">
+      <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2906,7 +3268,165 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="25.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="1" customWidth="1"/>
+    <col min="8" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="43.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:12">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2918,7 +3438,7 @@
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -2928,7 +3448,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2970,32 +3490,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="99.75" spans="1:12">
@@ -3003,22 +3523,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="99.75" spans="1:12">
@@ -3026,28 +3546,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="99.75" spans="1:12">
@@ -3055,31 +3575,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3088,13 +3608,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3105,10 +3625,10 @@
     <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="69.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3116,7 +3636,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3158,30 +3678,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" ht="99.75" spans="1:12">
@@ -3189,66 +3709,66 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="114" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="128.25" spans="1:12">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3282,13 +3802,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -3307,7 +3827,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3349,28 +3869,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:12">
@@ -3378,28 +3898,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:12">
@@ -3407,28 +3927,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:12">
@@ -3436,28 +3956,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:12">
@@ -3465,61 +3985,59 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="108" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="85.5" spans="1:12">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3528,7 +4046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M6"/>
@@ -3551,7 +4069,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3593,32 +4111,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
@@ -3626,31 +4144,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -3659,29 +4177,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -3690,31 +4208,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -3723,560 +4241,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="40.25" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="119.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.25" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="189" spans="2:11">
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="189" spans="2:11">
-      <c r="B3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="175.5" spans="2:9">
-      <c r="B4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="175.5" spans="2:9">
-      <c r="B5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="229.5" spans="2:11">
-      <c r="B6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="175.5" spans="2:11">
-      <c r="B7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="175.5" spans="2:6">
-      <c r="B8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="175.5" spans="2:11">
-      <c r="B9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="175.5" spans="2:11">
-      <c r="B10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" ht="175.5" spans="2:11">
-      <c r="B11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" ht="175.5" spans="2:11">
-      <c r="B12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" ht="175.5" spans="2:11">
-      <c r="B13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" ht="189" spans="2:11">
-      <c r="B14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" ht="175.5" spans="2:11">
-      <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" ht="175.5" spans="2:11">
-      <c r="B16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" ht="94.5" spans="2:11">
-      <c r="B17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" ht="94.5" spans="2:11">
-      <c r="B18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" ht="94.5" spans="2:11">
-      <c r="B19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" ht="94.5" spans="2:11">
-      <c r="B20" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" ht="409.5" spans="2:11">
-      <c r="B21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" ht="243" spans="2:11">
-      <c r="B22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>169</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4287,25 +4278,27 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="9" max="9" width="21.375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4342,109 +4335,244 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="99.75" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="202.5" spans="1:12">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>174</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="99.75" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="148.5" spans="1:12">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>177</v>
+        <v>102</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="99.75" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="148.5" spans="1:12">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>177</v>
+        <v>102</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="148.5" spans="1:12">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="148.5" spans="1:12">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="148.5" spans="1:12">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="12:12">
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" customFormat="1" spans="12:12">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" customFormat="1" spans="12:12">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" customFormat="1" spans="12:12">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" customFormat="1" spans="12:12">
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" customFormat="1" spans="12:12">
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" customFormat="1" spans="12:12">
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" customFormat="1" spans="12:12">
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" customFormat="1" spans="12:12">
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" customFormat="1" spans="12:12">
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" customFormat="1" spans="12:12">
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" customFormat="1" spans="12:12">
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" customFormat="1" spans="12:12">
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" customFormat="1" spans="12:12">
+      <c r="L21" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4463,4 +4591,213 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="99.75" spans="1:13">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" ht="99.75" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="99.75" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="114" spans="1:12">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/case2.xlsx
+++ b/data/case2.xlsx
@@ -4,27 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="690"/>
+    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="690" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="app" sheetId="12" r:id="rId1"/>
-    <sheet name="app通用" sheetId="5" r:id="rId2"/>
-    <sheet name="登录" sheetId="4" r:id="rId3"/>
-    <sheet name="首页" sheetId="1" r:id="rId4"/>
-    <sheet name="个人空间页" sheetId="9" r:id="rId5"/>
-    <sheet name="邀请好友注册" sheetId="8" r:id="rId6"/>
-    <sheet name="直播" sheetId="6" r:id="rId7"/>
-    <sheet name="创作" sheetId="7" r:id="rId8"/>
-    <sheet name="漫画" sheetId="3" r:id="rId9"/>
-    <sheet name="漫剧" sheetId="10" r:id="rId10"/>
-    <sheet name="爬虫内容" sheetId="11" r:id="rId11"/>
+    <sheet name="app通用" sheetId="5" r:id="rId1"/>
+    <sheet name="登录" sheetId="4" r:id="rId2"/>
+    <sheet name="首页" sheetId="1" r:id="rId3"/>
+    <sheet name="个人空间页" sheetId="9" r:id="rId4"/>
+    <sheet name="邀请好友注册" sheetId="8" r:id="rId5"/>
+    <sheet name="直播" sheetId="6" r:id="rId6"/>
+    <sheet name="创作" sheetId="7" r:id="rId7"/>
+    <sheet name="漫画" sheetId="3" r:id="rId8"/>
+    <sheet name="漫剧" sheetId="10" r:id="rId9"/>
+    <sheet name="爬虫内容" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>id</t>
   </si>
@@ -65,18 +64,36 @@
     <t>测试结果</t>
   </si>
   <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>app通用</t>
+  </si>
+  <si>
+    <t>/api/app/install</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '', 'Authorization': Authorization}</t>
+  </si>
+  <si>
+    <t>{'device_token': '354730010176117','dreampix_device_id': 'V1_0d277735443e8931f8c89d976d0ee6a4a88b1511fc1a391180ef73134eb92682','nonce': 'vm0rq26','timestamp':timestamp}</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>get_module_unread</t>
   </si>
   <si>
-    <t>app通用</t>
-  </si>
-  <si>
     <t>/api/app/get_module_unread</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '4b5e4c5a02', 'Authorization': Authorization}</t>
   </si>
   <si>
@@ -84,24 +101,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>install</t>
-  </si>
-  <si>
-    <t>/api/app/install</t>
-  </si>
-  <si>
-    <t>{'Content-Type': 'application/json', 'channel': 'default', 'X-Token': '', 'Authorization': Authorization}</t>
-  </si>
-  <si>
-    <t>{'device_token': '354730010176117','dreampix_device_id': 'V1_0d277735443e8931f8c89d976d0ee6a4a88b1511fc1a391180ef73134eb92682','nonce': 'vm0rq26','timestamp':timestamp}</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>emoji_package</t>
@@ -663,6 +662,9 @@
   </si>
   <si>
     <t>{'page':'1', 'pageSize': '20', 'app_key': 'lemondream'}</t>
+  </si>
+  <si>
+    <t>obj_id</t>
   </si>
   <si>
     <t>{"msg":"请求成功"}</t>
@@ -1095,6 +1097,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1169,6 +1177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1243,6 +1257,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1290,6 +1310,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{'type':'4','obj_id':'48283683','app_key':'lemondream_3',</t>
     </r>
     <r>
@@ -1340,6 +1366,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1414,6 +1446,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1482,6 +1520,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{'type':'2','obj_id':'52_102757','app_key':'lemondream_3',</t>
     </r>
     <r>
@@ -1532,6 +1576,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1603,6 +1653,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -1824,10 +1880,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1870,28 +1926,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1905,10 +1939,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1927,19 +2007,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1950,17 +2022,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1968,15 +2047,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1990,24 +2061,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2040,7 +2096,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,37 +2138,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2107,6 +2187,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,73 +2252,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,17 +2299,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2274,6 +2324,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2284,24 +2358,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2339,10 +2395,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2351,142 +2407,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2860,415 +2913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="216" spans="1:12">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="11.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="14.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="114" spans="1:12">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="114" spans="1:12">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="142.5" spans="1:12">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="21.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" ht="99.75" spans="2:12">
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="99.75" spans="2:12">
-      <c r="B3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="128.25" spans="2:12">
-      <c r="B4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3287,7 +2935,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3329,29 +2977,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
+      <c r="D2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>19</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:12">
@@ -3359,25 +3006,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:12">
@@ -3397,7 +3044,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
@@ -3406,7 +3053,7 @@
         <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3420,13 +3067,161 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="99.75" spans="2:12">
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="99.75" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="128.25" spans="2:12">
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3448,7 +3243,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3495,27 +3290,27 @@
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="99.75" spans="1:12">
@@ -3531,14 +3326,14 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="99.75" spans="1:12">
@@ -3554,20 +3349,20 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="99.75" spans="1:12">
@@ -3583,7 +3378,7 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3592,14 +3387,14 @@
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3608,13 +3403,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3636,7 +3431,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3673,127 +3468,129 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="99.75" spans="1:12">
-      <c r="A2" s="5">
+    <row r="2" s="4" customFormat="1" ht="99.75" spans="1:12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="99.75" spans="1:12">
-      <c r="A3" s="5">
+      <c r="I2" s="5"/>
+      <c r="J2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="99.75" spans="1:12">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="128.25" spans="1:12">
-      <c r="A4" s="5">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="128.25" spans="1:12">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="1"/>
     <row r="6" s="1" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3802,7 +3599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M7"/>
@@ -3827,7 +3624,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3869,28 +3666,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:12">
@@ -3898,28 +3695,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:12">
@@ -3927,28 +3724,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:12">
@@ -3956,19 +3753,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>46</v>
@@ -3977,7 +3774,7 @@
         <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:12">
@@ -3985,59 +3782,59 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="85.5" spans="1:12">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>19</v>
+      <c r="J7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4046,7 +3843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M6"/>
@@ -4069,7 +3866,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4116,27 +3913,27 @@
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
@@ -4144,19 +3941,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>82</v>
+      <c r="F3" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -4164,11 +3961,11 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -4177,19 +3974,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>82</v>
+      <c r="F4" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4199,7 +3996,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -4208,22 +4005,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>82</v>
+      <c r="F5" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -4232,7 +4029,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -4241,22 +4038,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>82</v>
+      <c r="F6" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -4265,7 +4062,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -4275,7 +4072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M21"/>
@@ -4298,7 +4095,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4340,35 +4137,34 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="148.5" spans="1:12">
@@ -4376,31 +4172,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="148.5" spans="1:12">
@@ -4408,31 +4204,31 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="148.5" spans="1:12">
@@ -4440,32 +4236,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="I5" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="J5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="148.5" spans="1:12">
@@ -4473,30 +4268,28 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>109</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="I6" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="5" t="s">
-        <v>19</v>
+        <v>99</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="148.5" spans="1:12">
@@ -4504,72 +4297,71 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>111</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>19</v>
+        <v>113</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="12:12">
-      <c r="L8" s="5"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" customFormat="1" spans="12:12">
-      <c r="L9" s="5"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" customFormat="1" spans="12:12">
-      <c r="L10" s="5"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" customFormat="1" spans="12:12">
-      <c r="L11" s="5"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" customFormat="1" spans="12:12">
-      <c r="L12" s="5"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" customFormat="1" spans="12:12">
-      <c r="L13" s="5"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" customFormat="1" spans="12:12">
-      <c r="L14" s="5"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" customFormat="1" spans="12:12">
-      <c r="L15" s="5"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" customFormat="1" spans="12:12">
-      <c r="L16" s="5"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" customFormat="1" spans="12:12">
-      <c r="L17" s="5"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" customFormat="1" spans="12:12">
-      <c r="L18" s="5"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" customFormat="1" spans="12:12">
-      <c r="L19" s="5"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="12:12">
-      <c r="L20" s="5"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" customFormat="1" spans="12:12">
-      <c r="L21" s="5"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4577,7 +4369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -4593,7 +4385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M6"/>
@@ -4616,7 +4408,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4658,146 +4450,308 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="6" t="s">
         <v>115</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" ht="99.75" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="99.75" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>120</v>
+      <c r="B4" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="114" spans="1:12">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="99.75" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>123</v>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="114" spans="1:12">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="114" spans="1:12">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="142.5" spans="1:12">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/case2.xlsx
+++ b/data/case2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="690" activeTab="2"/>
+    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="app通用" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
   <si>
     <t>id</t>
   </si>
@@ -1054,18 +1054,21 @@
     <t>{"live_id":live_id['live_id'],"access_token":token['access_token']}</t>
   </si>
   <si>
+    <t>access_token,live_id</t>
+  </si>
+  <si>
+    <t>{"group_id"}</t>
+  </si>
+  <si>
+    <t>获取直播间信息</t>
+  </si>
+  <si>
+    <t>/api/live_broadcast/get_studio_info</t>
+  </si>
+  <si>
     <t>live_id，access_token</t>
   </si>
   <si>
-    <t>{"group_id"}</t>
-  </si>
-  <si>
-    <t>获取直播间信息</t>
-  </si>
-  <si>
-    <t>/api/live_broadcast/get_studio_info</t>
-  </si>
-  <si>
     <t>开启直播间</t>
   </si>
   <si>
@@ -1121,7 +1124,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>:'48283683'</t>
+      <t>:comic_id['comic_id']</t>
     </r>
     <r>
       <rPr>
@@ -1170,6 +1173,9 @@
     </r>
   </si>
   <si>
+    <t>access_token,comic_id</t>
+  </si>
+  <si>
     <t>漫画评论</t>
   </si>
   <si>
@@ -1201,7 +1207,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>:'48283683'</t>
+      <t>:comic_id['comic_id']</t>
     </r>
     <r>
       <rPr>
@@ -1316,7 +1322,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>{'type':'4','obj_id':'48283683','app_key':'lemondream_3',</t>
+      <t>{'type':'4','obj_id':comic_id['comic_id'],'app_key':'lemondream_3',</t>
     </r>
     <r>
       <rPr>
@@ -1390,7 +1396,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>:'52_102757'</t>
+      <t>:adventure_id['adventure_id']</t>
     </r>
     <r>
       <rPr>
@@ -1439,6 +1445,9 @@
     </r>
   </si>
   <si>
+    <t>access_token,adventure_id</t>
+  </si>
+  <si>
     <t>漫剧评论</t>
   </si>
   <si>
@@ -1470,7 +1479,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>:'52_102757'</t>
+      <t>:adventure_id['adventure_id']</t>
     </r>
     <r>
       <rPr>
@@ -1526,7 +1535,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>{'type':'2','obj_id':'52_102757','app_key':'lemondream_3',</t>
+      <t>{'type':'2','obj_id':adventure_id['adventure_id'],'app_key':'lemondream_3',</t>
     </r>
     <r>
       <rPr>
@@ -1881,9 +1890,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1925,37 +1934,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1969,6 +1957,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1976,7 +1972,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1992,8 +1987,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2007,6 +2003,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2015,8 +2055,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2030,40 +2071,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2096,25 +2105,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,24 +2147,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2162,13 +2159,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,13 +2189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,19 +2213,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2234,7 +2261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,37 +2273,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2287,6 +2296,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2340,24 +2364,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2376,17 +2396,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2395,10 +2404,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2407,133 +2416,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2913,13 +2922,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -3054,11 +3063,6 @@
       </c>
       <c r="L4" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3127,13 +3131,13 @@
     </row>
     <row r="2" ht="99.75" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -3142,7 +3146,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
@@ -3155,13 +3159,13 @@
     </row>
     <row r="3" ht="99.75" spans="2:12">
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -3170,7 +3174,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
@@ -3183,22 +3187,22 @@
     </row>
     <row r="4" ht="128.25" spans="2:12">
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
@@ -3221,7 +3225,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3232,7 +3236,7 @@
     <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.375" style="1" customWidth="1"/>
@@ -3280,7 +3284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="114" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="99.75" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3408,7 +3412,7 @@
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -3604,8 +3608,8 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -4077,8 +4081,8 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4222,7 +4226,7 @@
         <v>102</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>104</v>
@@ -4236,13 +4240,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -4268,10 +4272,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -4297,10 +4301,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -4315,7 +4319,7 @@
         <v>103</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>25</v>
@@ -4391,7 +4395,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4450,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -4465,11 +4469,11 @@
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="J2" s="4"/>
       <c r="L2" s="4" t="s">
@@ -4482,13 +4486,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -4497,11 +4501,11 @@
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4514,13 +4518,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -4529,7 +4533,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
@@ -4541,18 +4545,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="99.75" spans="1:12">
+    <row r="5" ht="128.25" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -4561,11 +4565,11 @@
         <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4599,8 +4603,8 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -4663,13 +4667,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -4678,11 +4682,11 @@
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="J2" s="4"/>
       <c r="L2" s="4" t="s">
@@ -4694,13 +4698,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -4709,29 +4713,29 @@
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="J3" s="4"/>
       <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="142.5" spans="1:12">
+    <row r="4" ht="156.75" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -4740,11 +4744,11 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>

--- a/data/case2.xlsx
+++ b/data/case2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="690" activeTab="5"/>
+    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="690" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="app通用" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="个人空间页" sheetId="9" r:id="rId4"/>
     <sheet name="邀请好友注册" sheetId="8" r:id="rId5"/>
     <sheet name="直播" sheetId="6" r:id="rId6"/>
-    <sheet name="创作" sheetId="7" r:id="rId7"/>
+    <sheet name="内容创作" sheetId="7" r:id="rId7"/>
     <sheet name="漫画" sheetId="3" r:id="rId8"/>
     <sheet name="漫剧" sheetId="10" r:id="rId9"/>
     <sheet name="爬虫内容" sheetId="11" r:id="rId10"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>id</t>
   </si>
@@ -270,345 +270,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'avatar'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=edlgyevh0NKzuOHe2SX6yg&amp;s=100'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'birthday'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'2000-01-01'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'city'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>''</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'device'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'nickname'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'ssk'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'openid'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'FD717EC03696FFB9E78AADEC85E6565D'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'province'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>''</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'sex'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'type'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6897BB"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
+    <t>{'avatar':'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=BHAOAdJS9Dz1A2Ep9u077A&amp;s=100&amp;t=1522303015','birthday':'2000-01-01','city':'','device':1,'nickname':'嗯啦','openid':'7D16713132BEF9883D7F0D2B7731B737','province':'','sex':1,'type':2}</t>
   </si>
   <si>
     <t>access_token</t>
   </si>
   <si>
-    <t>{"uid":1042,"is_bind":1}</t>
+    <t>{"uid":1060,"is_bind":1}</t>
   </si>
   <si>
     <t>手机号登录-发短信</t>
@@ -826,6 +494,344 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'avatar'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'http://thirdqq.qlogo.cn/g?b=oidb&amp;k=edlgyevh0NKzuOHe2SX6yg&amp;s=100'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'birthday'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'2000-01-01'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'city'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'device'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'nickname'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'ssk'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'openid'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'FD717EC03696FFB9E78AADEC85E6565D'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'province'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'sex'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'type'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>{"uid":1042,"is_bind":1}</t>
+  </si>
+  <si>
     <t>我的邀请详情</t>
   </si>
   <si>
@@ -836,12 +842,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFA9B7C6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -878,97 +878,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'channel'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'default'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'X-Token'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'4b5e4c5a02'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9876AA"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'Authorization'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFCC7832"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: Authorization,'accessToken':token['access_token']</t>
+      <t>,'accessToken':token['access_token']</t>
     </r>
     <r>
       <rPr>
@@ -1042,33 +952,24 @@
     <t>live_id</t>
   </si>
   <si>
-    <t>{"live_id"}</t>
-  </si>
-  <si>
     <t>创建直播间组</t>
   </si>
   <si>
     <t>/api/live_broadcast/create_group</t>
   </si>
   <si>
-    <t>{"live_id":live_id['live_id'],"access_token":token['access_token']}</t>
+    <t>{'live_id':live_id['live_id'],'access_token':token['access_token']}</t>
   </si>
   <si>
     <t>access_token,live_id</t>
   </si>
   <si>
-    <t>{"group_id"}</t>
-  </si>
-  <si>
     <t>获取直播间信息</t>
   </si>
   <si>
     <t>/api/live_broadcast/get_studio_info</t>
   </si>
   <si>
-    <t>live_id，access_token</t>
-  </si>
-  <si>
     <t>开启直播间</t>
   </si>
   <si>
@@ -1087,7 +988,25 @@
     <t>/api/live_broadcast/get_studio_close_info</t>
   </si>
   <si>
-    <t>{"is_online":0}</t>
+    <t>配音tab</t>
+  </si>
+  <si>
+    <t>内容创作</t>
+  </si>
+  <si>
+    <t>/api/voice_template/get_tab_list</t>
+  </si>
+  <si>
+    <t>{'page':'1','pagesize':'20','access_token':token['access_token']}</t>
+  </si>
+  <si>
+    <t>配音模板</t>
+  </si>
+  <si>
+    <t>/api/voice_template/get_voice_template_list</t>
+  </si>
+  <si>
+    <t>{'tab_id':'3','page':'1','pagesize':'20','access_token':token['access_token']}</t>
   </si>
   <si>
     <t>漫画详情页</t>
@@ -2546,7 +2465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2563,6 +2482,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2991,7 +2913,7 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3131,13 +3053,13 @@
     </row>
     <row r="2" ht="99.75" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -3146,7 +3068,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
@@ -3159,13 +3081,13 @@
     </row>
     <row r="3" ht="99.75" spans="2:12">
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -3174,7 +3096,7 @@
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
@@ -3187,22 +3109,22 @@
     </row>
     <row r="4" ht="128.25" spans="2:12">
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
@@ -3224,8 +3146,8 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3247,7 +3169,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3284,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="99.75" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="128.25" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3412,7 +3334,7 @@
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -3482,7 +3404,7 @@
       <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3515,7 +3437,7 @@
       <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3544,7 +3466,7 @@
       <c r="C4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3568,8 +3490,8 @@
     <row r="5" customFormat="1"/>
     <row r="6" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3608,7 +3530,7 @@
   <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3817,10 +3739,10 @@
       <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3853,13 +3775,14 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="74.125" customWidth="1"/>
     <col min="7" max="7" width="47.5" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
@@ -3927,17 +3850,17 @@
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="4" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
@@ -3945,19 +3868,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3965,7 +3888,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
@@ -3978,19 +3901,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -4009,22 +3932,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -4033,7 +3956,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -4042,22 +3965,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -4066,7 +3989,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -4079,10 +4002,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4091,11 +4014,12 @@
     <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="32.125" customWidth="1"/>
     <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="21.375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="28.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4141,32 +4065,30 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="L2" s="4" t="s">
         <v>25</v>
       </c>
@@ -4176,29 +4098,27 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="J3" s="1"/>
       <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
@@ -4211,7 +4131,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>106</v>
@@ -4220,17 +4140,15 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="J4" s="1"/>
       <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
@@ -4240,31 +4158,29 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="L5" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="148.5" spans="1:12">
@@ -4272,28 +4188,26 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="L6" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="148.5" spans="1:12">
@@ -4301,71 +4215,176 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="J7" s="1"/>
       <c r="L7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="12:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="10:12">
+      <c r="J8" s="1"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" customFormat="1" spans="12:12">
+    <row r="9" customFormat="1" spans="10:12">
+      <c r="J9" s="1"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" customFormat="1" spans="12:12">
+    <row r="10" customFormat="1" spans="10:12">
+      <c r="J10" s="1"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" customFormat="1" spans="12:12">
+    <row r="11" customFormat="1" spans="10:12">
+      <c r="J11" s="1"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" customFormat="1" spans="12:12">
+    <row r="12" customFormat="1" spans="10:12">
+      <c r="J12" s="1"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" customFormat="1" spans="12:12">
+    <row r="13" customFormat="1" spans="10:12">
+      <c r="J13" s="1"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" customFormat="1" spans="12:12">
+    <row r="14" customFormat="1" spans="10:12">
+      <c r="J14" s="1"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" customFormat="1" spans="12:12">
+    <row r="15" customFormat="1" spans="10:12">
+      <c r="J15" s="1"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" customFormat="1" spans="12:12">
+    <row r="16" customFormat="1" spans="10:12">
+      <c r="J16" s="1"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" customFormat="1" spans="12:12">
+    <row r="17" customFormat="1" spans="10:12">
+      <c r="J17" s="1"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" customFormat="1" spans="12:12">
+    <row r="18" customFormat="1" spans="10:12">
+      <c r="J18" s="1"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" customFormat="1" spans="12:12">
+    <row r="19" customFormat="1" spans="10:12">
+      <c r="J19" s="1"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" customFormat="1" spans="12:12">
+    <row r="20" customFormat="1" spans="10:12">
+      <c r="J20" s="1"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" customFormat="1" spans="12:12">
+    <row r="21" customFormat="1" spans="10:12">
+      <c r="J21" s="1"/>
       <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="10:10">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="10:10">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="10:10">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="10:10">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="10:10">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="10:10">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="10:10">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="10:10">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="10:10">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="10:10">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="10:10">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="10:10">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4376,14 +4395,122 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="5" width="9" style="6"/>
+    <col min="6" max="6" width="31.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="40.5" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="162" spans="1:12">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="162" spans="1:12">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4454,13 +4581,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -4469,11 +4596,11 @@
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J2" s="4"/>
       <c r="L2" s="4" t="s">
@@ -4486,13 +4613,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -4501,11 +4628,11 @@
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -4518,13 +4645,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -4533,7 +4660,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
@@ -4550,13 +4677,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -4565,11 +4692,11 @@
         <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4667,13 +4794,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
@@ -4682,11 +4809,11 @@
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J2" s="4"/>
       <c r="L2" s="4" t="s">
@@ -4698,13 +4825,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -4713,11 +4840,11 @@
         <v>33</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J3" s="4"/>
       <c r="L3" s="4" t="s">
@@ -4729,13 +4856,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -4744,11 +4871,11 @@
         <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>25</v>
